--- a/testcase1.xlsx
+++ b/testcase1.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwok Man Hei\PycharmProjects\pyexcel\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwok Man Hei\PycharmProjects\pythonExcelControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4EB0AD9-C299-49C0-BED0-A1C26A047EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F1826-611E-4745-8DD0-9CE59EC4EBE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4932" xr2:uid="{A73AB742-B288-43B7-AA46-F090FA822EA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,23 +44,35 @@
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>列標籤</t>
+  </si>
+  <si>
+    <t>計數 - 1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>總計</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -69,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -77,14 +94,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -102,6 +266,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kwok Man Hei" refreshedDate="43631.695399999997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{7C345BC5-9EAF-4E13-B06F-80953C7494F4}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G6" sheet="工作表1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="1" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="2" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+    </cacheField>
+    <cacheField name="3" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="4" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="4"/>
+    </cacheField>
+    <cacheField name="5" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="5"/>
+    </cacheField>
+    <cacheField name="6" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="6"/>
+    </cacheField>
+    <cacheField name="7" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="7" maxValue="7"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kwok Man Hei" refreshedDate="43631.695903009262" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{DCE876D5-4ADC-4499-AD7A-9DBDD775B59E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G6" sheet="工作表1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="1" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="2">
+        <s v="a"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+    </cacheField>
+    <cacheField name="3" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="4" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="4"/>
+    </cacheField>
+    <cacheField name="5" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="5"/>
+    </cacheField>
+    <cacheField name="6" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="6"/>
+    </cacheField>
+    <cacheField name="7" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="7" maxValue="7"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+    <s v="b"/>
+    <s v="a"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADD0D06F-853D-405F-987D-4FAE5B301098}" name="樞紐分析表3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="計數 - 1" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C40F9764-4402-4C3C-85C9-7A9AA2008837}" name="樞紐分析表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H1:J18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,16 +813,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C008B-62C9-4A13-ABBE-65429A4532C4}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152C4AED-8998-441B-B837-9C7A3B88CA1C}">
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C008B-62C9-4A13-ABBE-65429A4532C4}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>1</v>
       </c>
@@ -431,8 +895,11 @@
       <c r="G1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -454,8 +921,11 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -477,8 +947,11 @@
       <c r="G3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -500,8 +973,11 @@
       <c r="G4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
@@ -523,8 +999,11 @@
       <c r="G5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -546,10 +1025,73 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>